--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74066.19741950245</v>
+        <v>-77034.77622310106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13093637.42160412</v>
+        <v>13094380.88143362</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>221.6422141236512</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>164.2385963927172</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>77.3904209054608</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>284.0078680712132</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>298.3654036477785</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>118.9315118908886</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>155.2114886365809</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>104.082459166963</v>
       </c>
       <c r="G8" t="n">
-        <v>139.1551037509701</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,7 +1190,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.1916198885553</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881764</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>88.05763087681044</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>166.9534120673311</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>74.56653414973471</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>15.02864725723531</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>50.52231406063304</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>78.5650562132606</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>70.94190196583911</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>182.0421871704835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.8913848095165</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2081236226108</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744753</v>
+        <v>82.39501537729598</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>283.8758740715556</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>122.900700461669</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>84.57366324850767</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672377</v>
+        <v>84.6125906008196</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>90.70957344888305</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.0709627069877</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>154.4891412348582</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T38" t="n">
-        <v>197.6600124601322</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668793</v>
+        <v>175.5610162827834</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835698</v>
+        <v>162.9758571994739</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031543</v>
+        <v>144.3445091190585</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315111</v>
+        <v>142.1629987474153</v>
       </c>
       <c r="F40" t="n">
-        <v>80.51925417941288</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.1830258928</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.56247546146118</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.90978769192968</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434009</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477038</v>
+        <v>213.2110305636079</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333624</v>
+        <v>281.9144876492666</v>
       </c>
       <c r="V40" t="n">
-        <v>247.97646830877</v>
+        <v>247.8666794246741</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215329</v>
+        <v>282.2520344374371</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739791</v>
+        <v>221.4386914898833</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370368</v>
+        <v>214.3136894529409</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.70965412973851</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.70965412973851</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.50539369077</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="C2" t="n">
-        <v>1618.50539369077</v>
+        <v>1469.752853299486</v>
       </c>
       <c r="D2" t="n">
-        <v>1260.23969508402</v>
+        <v>1111.487154692735</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1111.487154692735</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>700.5012499031277</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.50539369077</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1169.769329127152</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2340.741205944899</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>2340.741205944899</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.741205944899</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714563</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714563</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>210.7222632714563</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.2778500677821</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C8" t="n">
-        <v>991.2778500677821</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D8" t="n">
-        <v>991.2778500677821</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="E8" t="n">
-        <v>605.4895974695378</v>
+        <v>1057.701283029432</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5036926799302</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.2778500677821</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972664</v>
+        <v>721.6132334414665</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075806</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
         <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.7425750505953</v>
+        <v>964.3709295897389</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226884</v>
+        <v>795.434746661832</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103526</v>
+        <v>645.3181072494963</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279595</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300492</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300492</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.600789061326</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.183619024365</v>
+        <v>964.3709295897389</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.183619024365</v>
+        <v>964.3709295897389</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.391039880835</v>
+        <v>964.3709295897389</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5434,49 +5434,49 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953317</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442081</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927042</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104706</v>
+        <v>1881.023734640326</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104706</v>
+        <v>1659.257119209851</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.24059923035</v>
+        <v>1659.257119209851</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024463</v>
+        <v>1404.572631003964</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987502</v>
+        <v>1115.155460967004</v>
       </c>
       <c r="X16" t="n">
-        <v>1107.958489212517</v>
+        <v>887.1659100689867</v>
       </c>
       <c r="Y16" t="n">
         <v>887.1659100689867</v>
@@ -5504,37 +5504,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>688.166271872206</v>
+        <v>657.7758834233819</v>
       </c>
       <c r="C19" t="n">
-        <v>637.1336314069201</v>
+        <v>488.839700495475</v>
       </c>
       <c r="D19" t="n">
-        <v>487.0169919945844</v>
+        <v>488.839700495475</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>488.839700495475</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052697</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W19" t="n">
-        <v>908.9588510157362</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X19" t="n">
-        <v>908.9588510157362</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.166271872206</v>
+        <v>839.4243482536216</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001584</v>
@@ -5759,10 +5759,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5777,7 +5777,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>728.2844224724404</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>559.3482395445335</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W22" t="n">
-        <v>1138.844656640086</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X22" t="n">
-        <v>910.8551057420682</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.8551057420682</v>
+        <v>909.9328873026801</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,34 +6084,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8112129900687</v>
+        <v>952.9597618327373</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663147</v>
+        <v>784.0235789048304</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>633.9069394924946</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>485.9938459101015</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.241807861856</v>
+        <v>1100.64473518891</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.252256963839</v>
+        <v>952.9597618327373</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4596778203085</v>
+        <v>952.9597618327373</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>722.4071781934679</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.14765935807</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>1001.463171152183</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W31" t="n">
-        <v>712.0460011152229</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X31" t="n">
-        <v>484.0564502172056</v>
+        <v>868.3175368797233</v>
       </c>
       <c r="Y31" t="n">
-        <v>263.2638710736754</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074195</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972654</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750619</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.328657580447</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807093</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193583</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320268</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454342</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839437</v>
+        <v>704.2840989361214</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839437</v>
+        <v>704.2840989361214</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839437</v>
+        <v>704.2840989361213</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839437</v>
+        <v>556.3710053537282</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558178</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1420.142636483169</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1334.714693807909</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>1106.725142909891</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>885.9325637663611</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.005340067275</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.43635826424</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>198.7892266855929</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>198.7892266855929</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>689.5215595293442</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.539913781472</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>1903.635877180808</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.4498853824384</v>
+        <v>899.0584843522003</v>
       </c>
       <c r="C37" t="n">
-        <v>391.6246003172546</v>
+        <v>730.1223014242934</v>
       </c>
       <c r="D37" t="n">
-        <v>241.6188587676419</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327807</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985993</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769884</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.392965006008</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.427649183458</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.854058840294</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.547786666056</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X37" t="n">
-        <v>962.6691336307621</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.987452349955</v>
+        <v>1080.70694918244</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>892.189873607444</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.709310922884</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.265981642434</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.203094298863</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.434439028749</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.968680767669</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5489958917231</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.56735014385</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.663313543187</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.539788543381</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>629.5055376920609</v>
+        <v>746.6047788790906</v>
       </c>
       <c r="C40" t="n">
-        <v>464.7725618500712</v>
+        <v>581.9827008998243</v>
       </c>
       <c r="D40" t="n">
-        <v>318.8591295236528</v>
+        <v>436.1801664361287</v>
       </c>
       <c r="E40" t="n">
-        <v>175.1492430271768</v>
+        <v>292.5811778023759</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>292.5811778023759</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>292.5811778023759</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>155.0225657894466</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024332</v>
+        <v>177.0587253013233</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379043</v>
+        <v>440.9157065320493</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859461</v>
+        <v>832.905778875346</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179968</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151927</v>
+        <v>1675.287745231837</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431864</v>
+        <v>2046.538456507029</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532976</v>
+        <v>2341.297145603396</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351319</v>
+        <v>2463.238533416993</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.337320351319</v>
+        <v>2399.693293324135</v>
       </c>
       <c r="S40" t="n">
-        <v>2283.370337176167</v>
+        <v>2399.693293324135</v>
       </c>
       <c r="T40" t="n">
-        <v>2067.894761976466</v>
+        <v>2184.328615987157</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.02175537711</v>
+        <v>1899.566507250524</v>
       </c>
       <c r="V40" t="n">
-        <v>1532.54047425714</v>
+        <v>1649.196123993277</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.326511306097</v>
+        <v>1364.093058904957</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.540167493996</v>
+        <v>1140.41761295558</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.9507954363834</v>
+        <v>923.9391387606898</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>921.983162189159</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>778.3953859427374</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>653.627153211887</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945544</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>921.9831621891594</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>778.3953859427379</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>653.6271532118876</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>531.0624663109799</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704354</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>133.2530576400256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>105.1996354507086</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400319</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>49.74439522492617</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>49.74439522492668</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-5.85001617220778e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.37633176975874</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>85.18423125649693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>115.2024911817072</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>210.6810081318018</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>116.7245070379948</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>66.85599180967064</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.67357105237325</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>104.4808111661075</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>94.35543628911134</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>79.50153176642633</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,10 +24649,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696662</v>
+        <v>107.3740099541459</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>2.335964134057235</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>95.68395289042576</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>201.9493350880833</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.90589956932931</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031317</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>62.88306434380772</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>60.74061882846031</v>
+        <v>141.1500841237774</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621089</v>
+        <v>161.271088978013</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768959</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935097</v>
+        <v>16.97113738379396</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602551</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.0675244593051</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1113529.081416401</v>
+        <v>1113461.430343173</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1116716.494869946</v>
+        <v>1116821.595815362</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1132592.097353464</v>
+        <v>1133204.770368543</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1132592.097353464</v>
+        <v>1133204.770368543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991065</v>
       </c>
-      <c r="C2" t="n">
-        <v>307890.6636991064</v>
-      </c>
       <c r="D2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652377</v>
       </c>
       <c r="F2" t="n">
-        <v>297811.3401652377</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="G2" t="n">
         <v>297811.3401652375</v>
       </c>
       <c r="H2" t="n">
-        <v>297811.3401652376</v>
+        <v>297811.3401652377</v>
       </c>
       <c r="I2" t="n">
         <v>297811.3401652374</v>
       </c>
       <c r="J2" t="n">
+        <v>297811.3401652377</v>
+      </c>
+      <c r="K2" t="n">
         <v>297811.3401652376</v>
       </c>
-      <c r="K2" t="n">
-        <v>297811.3401652377</v>
-      </c>
       <c r="L2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652373</v>
       </c>
       <c r="M2" t="n">
-        <v>302529.6735129111</v>
+        <v>302506.1164194596</v>
       </c>
       <c r="N2" t="n">
-        <v>303398.9680911507</v>
+        <v>303422.5251846023</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485553</v>
+        <v>312970.016023358</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769596</v>
+        <v>3416.771119322948</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668403</v>
+        <v>16659.16697241332</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924298</v>
-      </c>
-      <c r="C4" t="n">
-        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709195</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674924</v>
+        <v>5069.915760662903</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725515</v>
+        <v>6475.275729222458</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591958995</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.39591958989</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008167</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557142.8899712771</v>
+        <v>-557142.8899712773</v>
       </c>
       <c r="C6" t="n">
-        <v>32824.98924326725</v>
+        <v>32824.98924326728</v>
       </c>
       <c r="D6" t="n">
-        <v>32824.98924326728</v>
+        <v>32824.98924326705</v>
       </c>
       <c r="E6" t="n">
-        <v>-547569.2000789747</v>
+        <v>-547636.3955692004</v>
       </c>
       <c r="F6" t="n">
-        <v>179808.2139144322</v>
+        <v>179741.018424206</v>
       </c>
       <c r="G6" t="n">
-        <v>179808.2139144319</v>
+        <v>179741.0184242062</v>
       </c>
       <c r="H6" t="n">
-        <v>179808.2139144321</v>
+        <v>179741.0184242064</v>
       </c>
       <c r="I6" t="n">
-        <v>179808.2139144319</v>
+        <v>179741.0184242061</v>
       </c>
       <c r="J6" t="n">
-        <v>3384.99472183919</v>
+        <v>3317.799231613499</v>
       </c>
       <c r="K6" t="n">
-        <v>179808.2139144322</v>
+        <v>179741.0184242062</v>
       </c>
       <c r="L6" t="n">
-        <v>179808.2139144321</v>
+        <v>179741.0184242067</v>
       </c>
       <c r="M6" t="n">
-        <v>-116501.623773492</v>
+        <v>-116499.7518036641</v>
       </c>
       <c r="N6" t="n">
-        <v>192412.0044278388</v>
+        <v>192211.5956246837</v>
       </c>
       <c r="O6" t="n">
-        <v>169450.1015487548</v>
+        <v>174864.3563005715</v>
       </c>
       <c r="P6" t="n">
-        <v>192278.039945439</v>
+        <v>191523.523272985</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962191</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698169</v>
+        <v>20.82395871551665</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230887</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-1.726162726051193e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.817079140532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>160.2881559486106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>249.5455736280778</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>209.1325774311302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>70.67517354946978</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>50.87556506963449</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>48.31530920773919</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9594002052142798</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>302.7935865747484</v>
       </c>
       <c r="G8" t="n">
-        <v>274.6290662698249</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.64036029338197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.82580834555245</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.697723443309466e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30271,10 +30271,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>1.537044377341999</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058046</v>
+        <v>4.270963899153881</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467053</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138828</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>232.8705192299203</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
@@ -33746,16 +33746,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504301</v>
@@ -33989,10 +33989,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059974</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>441.5889576101482</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552627</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400155</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>532.0150438593975</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306792</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>442.3909220061091</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687122</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230585</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282502</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193712</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.6131985422245</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340086</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>603.5887878384092</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
         <v>367.2547334404112</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>106.0328925632536</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
@@ -37394,16 +37394,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475637</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.994501805012</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>524.1185202629891</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
         <v>625.777556066439</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
@@ -37637,10 +37637,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916671</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571854</v>
+        <v>84.05088600981438</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792638</v>
+        <v>266.5222032633596</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394361</v>
+        <v>395.9495680235319</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034009</v>
+        <v>427.7351982874966</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359741</v>
+        <v>423.1556768200699</v>
       </c>
       <c r="O40" t="n">
-        <v>374.890929575694</v>
+        <v>375.0007184597898</v>
       </c>
       <c r="P40" t="n">
-        <v>297.626260708194</v>
+        <v>297.7360495922898</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195379</v>
+        <v>123.1731190036337</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030132</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753064</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030132</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753064</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
